--- a/Site e-commerce/px en em.xlsx
+++ b/Site e-commerce/px en em.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenza_supinfo\Documents\SUPINFO\pHTML\pHTML - VSC\Site e-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5823E1-45E4-42B7-A397-9E61A4F0190C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F219BB-95FD-445C-B619-02F1DDA99599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="1665" windowWidth="11250" windowHeight="11295" xr2:uid="{E1B6D694-29AA-4DDA-9928-97371FBC26CD}"/>
   </bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027E527F-9D2B-43EA-B4F8-92079451716C}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,187 +475,196 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C5" si="0">$C$2*B4</f>
-        <v>0.3125</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
-      </c>
-      <c r="G4">
-        <f>F4*G3/F3</f>
-        <v>480</v>
+        <f>$C$2*B4</f>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="0">$C$2*B5</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <f>F5*G3/F3</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C12" si="1">$C$2*B6</f>
-        <v>0.625</v>
-      </c>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C13" si="1">$C$2*B7</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>0.9375</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>25</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>1.5625</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>1.875</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>60</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>70</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C14" si="2">$C$2*B13</f>
-        <v>9.375</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
+        <v>150</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C15" si="2">$C$2*B14</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>200</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>250</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ref="C15:C23" si="3">$C$2*B15</f>
-        <v>15.625</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
+        <v>250</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C24" si="3">$C$2*B16</f>
+        <v>15.625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f t="shared" si="3"/>
         <v>18.75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>340</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>21.25</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="C18">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="C19">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C20">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="C21">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="C22">
         <f t="shared" si="3"/>
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23">
+        <v>680</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>41.784799999999997</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="3"/>
         <v>2.6115499999999998</v>
       </c>
